--- a/data/pca/factorExposure/factorExposure_2016-03-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01047792218260464</v>
+        <v>-0.01491715539352513</v>
       </c>
       <c r="C2">
-        <v>0.05756455070756881</v>
+        <v>0.04010752004052533</v>
       </c>
       <c r="D2">
-        <v>-0.03201080825446491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.07696286585986219</v>
+      </c>
+      <c r="E2">
+        <v>-0.1298767158969154</v>
+      </c>
+      <c r="F2">
+        <v>0.03288921052769576</v>
+      </c>
+      <c r="G2">
+        <v>0.005162550470276368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04416240989051386</v>
+        <v>-0.02734269277804131</v>
       </c>
       <c r="C3">
-        <v>0.1241884433227134</v>
+        <v>0.06788736307970455</v>
       </c>
       <c r="D3">
-        <v>-0.05881977590603341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07825227878619564</v>
+      </c>
+      <c r="E3">
+        <v>-0.06896644495378955</v>
+      </c>
+      <c r="F3">
+        <v>-0.05646202187119856</v>
+      </c>
+      <c r="G3">
+        <v>0.1043731856022397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05983973005335895</v>
+        <v>-0.06061104478504993</v>
       </c>
       <c r="C4">
-        <v>0.06179003875512055</v>
+        <v>0.06181486768719846</v>
       </c>
       <c r="D4">
-        <v>-0.02425612286926432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06871917978077602</v>
+      </c>
+      <c r="E4">
+        <v>-0.1171230703998817</v>
+      </c>
+      <c r="F4">
+        <v>-0.0259406185421237</v>
+      </c>
+      <c r="G4">
+        <v>-0.05055872039148816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04169915437959226</v>
+        <v>-0.03921436117209607</v>
       </c>
       <c r="C6">
-        <v>0.0365558093713346</v>
+        <v>0.02703197101505226</v>
       </c>
       <c r="D6">
-        <v>-0.02451844286815479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07560758666655189</v>
+      </c>
+      <c r="E6">
+        <v>-0.1047627454956769</v>
+      </c>
+      <c r="F6">
+        <v>-0.02643572402209808</v>
+      </c>
+      <c r="G6">
+        <v>0.0006034125596991127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02916892554158006</v>
+        <v>-0.0224902413933265</v>
       </c>
       <c r="C7">
-        <v>0.03623738564236594</v>
+        <v>0.03459416180384307</v>
       </c>
       <c r="D7">
-        <v>-0.004103012888994474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05769846645112314</v>
+      </c>
+      <c r="E7">
+        <v>-0.09443756710198697</v>
+      </c>
+      <c r="F7">
+        <v>-0.004452122646414656</v>
+      </c>
+      <c r="G7">
+        <v>-0.08592220984806589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01045643217147498</v>
+        <v>-0.008486537056028916</v>
       </c>
       <c r="C8">
-        <v>0.04453548187163064</v>
+        <v>0.03621799408996269</v>
       </c>
       <c r="D8">
-        <v>-0.02771491909395242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04899282840996493</v>
+      </c>
+      <c r="E8">
+        <v>-0.07245072241249359</v>
+      </c>
+      <c r="F8">
+        <v>-0.0172914877531064</v>
+      </c>
+      <c r="G8">
+        <v>0.01042829924154739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03895179208727881</v>
+        <v>-0.04285230835768335</v>
       </c>
       <c r="C9">
-        <v>0.04511684464678397</v>
+        <v>0.04888887570833057</v>
       </c>
       <c r="D9">
-        <v>-0.022391640765924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05905435754012853</v>
+      </c>
+      <c r="E9">
+        <v>-0.09771439257465209</v>
+      </c>
+      <c r="F9">
+        <v>-0.007370674741301323</v>
+      </c>
+      <c r="G9">
+        <v>-0.04886660732753379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07094999386800523</v>
+        <v>-0.09990502770014605</v>
       </c>
       <c r="C10">
-        <v>-0.1869749931651944</v>
+        <v>-0.2010113251285462</v>
       </c>
       <c r="D10">
-        <v>-0.004550924511359906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006500814508615576</v>
+      </c>
+      <c r="E10">
+        <v>-0.04172134230595794</v>
+      </c>
+      <c r="F10">
+        <v>-0.005539348612619113</v>
+      </c>
+      <c r="G10">
+        <v>-0.02504863945930037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04501546395352465</v>
+        <v>-0.0387249425947622</v>
       </c>
       <c r="C11">
-        <v>0.05006938785845287</v>
+        <v>0.0473503112515293</v>
       </c>
       <c r="D11">
-        <v>-0.01886264494291201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04139507621457846</v>
+      </c>
+      <c r="E11">
+        <v>-0.04471816395658579</v>
+      </c>
+      <c r="F11">
+        <v>-0.006146401417889182</v>
+      </c>
+      <c r="G11">
+        <v>-0.05736706855830391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04784432785492359</v>
+        <v>-0.04086123135745932</v>
       </c>
       <c r="C12">
-        <v>0.04468665052521124</v>
+        <v>0.04515408914191683</v>
       </c>
       <c r="D12">
-        <v>-0.0008389474473247313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03546445187553317</v>
+      </c>
+      <c r="E12">
+        <v>-0.05452253796027551</v>
+      </c>
+      <c r="F12">
+        <v>-0.003550441000747231</v>
+      </c>
+      <c r="G12">
+        <v>-0.04941130902834862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01690452010102258</v>
+        <v>-0.01589360631365192</v>
       </c>
       <c r="C13">
-        <v>0.05287960463726941</v>
+        <v>0.04121314822591155</v>
       </c>
       <c r="D13">
-        <v>-0.007852036044675536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06672724119450912</v>
+      </c>
+      <c r="E13">
+        <v>-0.1349371416347888</v>
+      </c>
+      <c r="F13">
+        <v>-0.01836562558551205</v>
+      </c>
+      <c r="G13">
+        <v>-0.04982722762708846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01304552989287519</v>
+        <v>-0.008103770969275042</v>
       </c>
       <c r="C14">
-        <v>0.03484705943331884</v>
+        <v>0.02989113708954296</v>
       </c>
       <c r="D14">
-        <v>8.452865113711482e-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04250356835083553</v>
+      </c>
+      <c r="E14">
+        <v>-0.08908237873731033</v>
+      </c>
+      <c r="F14">
+        <v>0.01398712399524739</v>
+      </c>
+      <c r="G14">
+        <v>-0.052853835441245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002285884918371518</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006558866678404434</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.011285247821082</v>
+      </c>
+      <c r="E15">
+        <v>-0.01226770087574547</v>
+      </c>
+      <c r="F15">
+        <v>0.0006035743937201886</v>
+      </c>
+      <c r="G15">
+        <v>-0.001697467939667382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04332334795824538</v>
+        <v>-0.03736850538920352</v>
       </c>
       <c r="C16">
-        <v>0.04733674064444503</v>
+        <v>0.04462672206273554</v>
       </c>
       <c r="D16">
-        <v>-0.004962412467102229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03577061236764943</v>
+      </c>
+      <c r="E16">
+        <v>-0.05961433324737668</v>
+      </c>
+      <c r="F16">
+        <v>0.008509842894758755</v>
+      </c>
+      <c r="G16">
+        <v>-0.04514639361680366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02528169845332215</v>
+        <v>-0.01895091741719179</v>
       </c>
       <c r="C19">
-        <v>0.06059419442391261</v>
+        <v>0.0438143453011574</v>
       </c>
       <c r="D19">
-        <v>-0.06628553576573089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09588946420393209</v>
+      </c>
+      <c r="E19">
+        <v>-0.1272966973011181</v>
+      </c>
+      <c r="F19">
+        <v>0.013829661381135</v>
+      </c>
+      <c r="G19">
+        <v>-0.001992543686452653</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02138042158861354</v>
+        <v>-0.01738333778378239</v>
       </c>
       <c r="C20">
-        <v>0.04739638670597681</v>
+        <v>0.03893220829069212</v>
       </c>
       <c r="D20">
-        <v>-0.006313764381065239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04931008972373241</v>
+      </c>
+      <c r="E20">
+        <v>-0.1040380284981696</v>
+      </c>
+      <c r="F20">
+        <v>-0.001171524884859672</v>
+      </c>
+      <c r="G20">
+        <v>-0.02939648851535077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01855244195671724</v>
+        <v>-0.01505899237729772</v>
       </c>
       <c r="C21">
-        <v>0.05621245365794917</v>
+        <v>0.04505058159168009</v>
       </c>
       <c r="D21">
-        <v>-0.02125274464634613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07524943489564039</v>
+      </c>
+      <c r="E21">
+        <v>-0.1577484940870324</v>
+      </c>
+      <c r="F21">
+        <v>0.01235680088024482</v>
+      </c>
+      <c r="G21">
+        <v>-0.06177457453562881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0007147334420537613</v>
+        <v>-0.005175317987525547</v>
       </c>
       <c r="C22">
-        <v>0.0138295823607768</v>
+        <v>0.02942558767294463</v>
       </c>
       <c r="D22">
-        <v>-0.02558154803972348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06551810403891158</v>
+      </c>
+      <c r="E22">
+        <v>-0.07647158207266075</v>
+      </c>
+      <c r="F22">
+        <v>-0.06484461069088372</v>
+      </c>
+      <c r="G22">
+        <v>0.02948775562792563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0007258165822923511</v>
+        <v>-0.005310945109711096</v>
       </c>
       <c r="C23">
-        <v>0.01384276713976151</v>
+        <v>0.02940141043796557</v>
       </c>
       <c r="D23">
-        <v>-0.02554353483039525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06475683842326635</v>
+      </c>
+      <c r="E23">
+        <v>-0.07666876187906821</v>
+      </c>
+      <c r="F23">
+        <v>-0.06486602912004084</v>
+      </c>
+      <c r="G23">
+        <v>0.02912326865613351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03996824619957415</v>
+        <v>-0.03818240510715235</v>
       </c>
       <c r="C24">
-        <v>0.04835521681501717</v>
+        <v>0.05238539655843076</v>
       </c>
       <c r="D24">
-        <v>-0.01147608891291587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.03815893434101013</v>
+      </c>
+      <c r="E24">
+        <v>-0.06504476653684954</v>
+      </c>
+      <c r="F24">
+        <v>0.004526980185824577</v>
+      </c>
+      <c r="G24">
+        <v>-0.06014793815600784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0508294175691586</v>
+        <v>-0.04536876939746013</v>
       </c>
       <c r="C25">
-        <v>0.05715454990758542</v>
+        <v>0.05507771503075835</v>
       </c>
       <c r="D25">
-        <v>-0.004334227817833435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03465619796550939</v>
+      </c>
+      <c r="E25">
+        <v>-0.05591992745776285</v>
+      </c>
+      <c r="F25">
+        <v>-0.007619501025125034</v>
+      </c>
+      <c r="G25">
+        <v>-0.0688838988557204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02125681822501467</v>
+        <v>-0.01879733222654497</v>
       </c>
       <c r="C26">
-        <v>0.01383186232044636</v>
+        <v>0.01583359112185777</v>
       </c>
       <c r="D26">
-        <v>-0.01427752449539506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03959063493102909</v>
+      </c>
+      <c r="E26">
+        <v>-0.06959613440539485</v>
+      </c>
+      <c r="F26">
+        <v>0.01322270349601961</v>
+      </c>
+      <c r="G26">
+        <v>-0.02519414516836168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08920420597234484</v>
+        <v>-0.1377276834741996</v>
       </c>
       <c r="C28">
-        <v>-0.2578976715606569</v>
+        <v>-0.2611624207734619</v>
       </c>
       <c r="D28">
-        <v>0.00567713224295494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02407464430974147</v>
+      </c>
+      <c r="E28">
+        <v>-0.06371711233172396</v>
+      </c>
+      <c r="F28">
+        <v>-0.005957098883747312</v>
+      </c>
+      <c r="G28">
+        <v>-0.05889209334101549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01107354473930666</v>
+        <v>-0.008277510272421709</v>
       </c>
       <c r="C29">
-        <v>0.03014174097355742</v>
+        <v>0.02749752844739087</v>
       </c>
       <c r="D29">
-        <v>0.004805700837246339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03531408638660047</v>
+      </c>
+      <c r="E29">
+        <v>-0.08298531319826101</v>
+      </c>
+      <c r="F29">
+        <v>0.004341092685440911</v>
+      </c>
+      <c r="G29">
+        <v>-0.05851326111077403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04547947161741882</v>
+        <v>-0.04536868204670585</v>
       </c>
       <c r="C30">
-        <v>0.04915186747376479</v>
+        <v>0.05536044338068299</v>
       </c>
       <c r="D30">
-        <v>-0.08110100444703451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1216852511239109</v>
+      </c>
+      <c r="E30">
+        <v>-0.110709591605968</v>
+      </c>
+      <c r="F30">
+        <v>-0.001389217231434479</v>
+      </c>
+      <c r="G30">
+        <v>-0.00265948516296455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06598407646668758</v>
+        <v>-0.06303588245666077</v>
       </c>
       <c r="C31">
-        <v>0.0437197492652955</v>
+        <v>0.05949363193971109</v>
       </c>
       <c r="D31">
-        <v>0.03813128009972871</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0001107497899559528</v>
+      </c>
+      <c r="E31">
+        <v>-0.08862291238459641</v>
+      </c>
+      <c r="F31">
+        <v>-0.03250277278323362</v>
+      </c>
+      <c r="G31">
+        <v>-0.03485101492622936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00727139578034844</v>
+        <v>-0.01126474182384702</v>
       </c>
       <c r="C32">
-        <v>0.03907754006183175</v>
+        <v>0.03413905353210345</v>
       </c>
       <c r="D32">
-        <v>-0.06104178290741864</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07021895661205424</v>
+      </c>
+      <c r="E32">
+        <v>-0.07780187998087809</v>
+      </c>
+      <c r="F32">
+        <v>0.01467715979887959</v>
+      </c>
+      <c r="G32">
+        <v>-0.0585096546824594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03683711416214313</v>
+        <v>-0.03017133736310048</v>
       </c>
       <c r="C33">
-        <v>0.05861773548718011</v>
+        <v>0.05186348707645592</v>
       </c>
       <c r="D33">
-        <v>-0.04253962342539939</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08772491558607598</v>
+      </c>
+      <c r="E33">
+        <v>-0.116930069473984</v>
+      </c>
+      <c r="F33">
+        <v>-0.01360095379151229</v>
+      </c>
+      <c r="G33">
+        <v>-0.05586232720577648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04607641181605993</v>
+        <v>-0.04126352801333227</v>
       </c>
       <c r="C34">
-        <v>0.06326963535204981</v>
+        <v>0.06251968523318022</v>
       </c>
       <c r="D34">
-        <v>-0.02439965566181045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04432837591469114</v>
+      </c>
+      <c r="E34">
+        <v>-0.04423308088765784</v>
+      </c>
+      <c r="F34">
+        <v>0.005770627399627576</v>
+      </c>
+      <c r="G34">
+        <v>-0.07003198127738204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-2.78200398365866e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>7.483897201293523e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>3.596027159581623e-05</v>
+      </c>
+      <c r="E35">
+        <v>0.0004489155179646426</v>
+      </c>
+      <c r="F35">
+        <v>0.0001237804458911394</v>
+      </c>
+      <c r="G35">
+        <v>-0.0003824612051297875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02032027602983548</v>
+        <v>-0.01790752655032138</v>
       </c>
       <c r="C36">
-        <v>0.01605758521398624</v>
+        <v>0.01280052455517643</v>
       </c>
       <c r="D36">
-        <v>-0.003999383881099989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0387797000111341</v>
+      </c>
+      <c r="E36">
+        <v>-0.08140442467171932</v>
+      </c>
+      <c r="F36">
+        <v>-0.001810353076390069</v>
+      </c>
+      <c r="G36">
+        <v>-0.04304841379167917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03069857893998659</v>
+        <v>-0.02384073052622705</v>
       </c>
       <c r="C38">
-        <v>0.03222567206188948</v>
+        <v>0.02481240083739572</v>
       </c>
       <c r="D38">
-        <v>0.01316735795319111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03043073112487737</v>
+      </c>
+      <c r="E38">
+        <v>-0.07100907329523735</v>
+      </c>
+      <c r="F38">
+        <v>-0.002161610097097472</v>
+      </c>
+      <c r="G38">
+        <v>-0.003176260662385691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05115469258867986</v>
+        <v>-0.0444489055844177</v>
       </c>
       <c r="C39">
-        <v>0.05782671641098749</v>
+        <v>0.06082510908597433</v>
       </c>
       <c r="D39">
-        <v>-0.02707455685095368</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06713556578446979</v>
+      </c>
+      <c r="E39">
+        <v>-0.07736901981110245</v>
+      </c>
+      <c r="F39">
+        <v>0.02109146461708341</v>
+      </c>
+      <c r="G39">
+        <v>-0.04757418508868284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01350368320878479</v>
+        <v>-0.01628925385780693</v>
       </c>
       <c r="C40">
-        <v>0.05584934133399317</v>
+        <v>0.03962944156175501</v>
       </c>
       <c r="D40">
-        <v>-0.00195497317270487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04392797565552901</v>
+      </c>
+      <c r="E40">
+        <v>-0.1183567702332217</v>
+      </c>
+      <c r="F40">
+        <v>-0.03015716508831882</v>
+      </c>
+      <c r="G40">
+        <v>-0.03829828072360415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02549034568559063</v>
+        <v>-0.02163191063205984</v>
       </c>
       <c r="C41">
-        <v>0.01344837876894419</v>
+        <v>0.009679179680831731</v>
       </c>
       <c r="D41">
-        <v>-0.001957040753204414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0257925287060524</v>
+      </c>
+      <c r="E41">
+        <v>-0.07681571990613452</v>
+      </c>
+      <c r="F41">
+        <v>-0.0001184408466632621</v>
+      </c>
+      <c r="G41">
+        <v>-0.03056568963119274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04838740830526433</v>
+        <v>-0.03362868957404817</v>
       </c>
       <c r="C43">
-        <v>0.03361254036635727</v>
+        <v>0.02415420278622402</v>
       </c>
       <c r="D43">
-        <v>-0.01440293473145839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05406125207084931</v>
+      </c>
+      <c r="E43">
+        <v>-0.08913659561940923</v>
+      </c>
+      <c r="F43">
+        <v>-0.02060926788550235</v>
+      </c>
+      <c r="G43">
+        <v>-0.04890436090627348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01897538076842535</v>
+        <v>-0.01983461466766923</v>
       </c>
       <c r="C44">
-        <v>0.06936382069536813</v>
+        <v>0.04845853741584238</v>
       </c>
       <c r="D44">
-        <v>0.01078251115673653</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04189738002269023</v>
+      </c>
+      <c r="E44">
+        <v>-0.113232872749282</v>
+      </c>
+      <c r="F44">
+        <v>0.01230786910917852</v>
+      </c>
+      <c r="G44">
+        <v>-0.02662985325782845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01542439126978836</v>
+        <v>-0.01385680997259557</v>
       </c>
       <c r="C46">
-        <v>0.02578311705150928</v>
+        <v>0.02889229711318676</v>
       </c>
       <c r="D46">
-        <v>0.01186234971259732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0303667708414436</v>
+      </c>
+      <c r="E46">
+        <v>-0.09506557218994094</v>
+      </c>
+      <c r="F46">
+        <v>0.01585733066650829</v>
+      </c>
+      <c r="G46">
+        <v>-0.06858474499290475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09410304254643176</v>
+        <v>-0.09449198929662417</v>
       </c>
       <c r="C47">
-        <v>0.06514206997310083</v>
+        <v>0.07890336977229463</v>
       </c>
       <c r="D47">
-        <v>0.04997722126588004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01581183042150226</v>
+      </c>
+      <c r="E47">
+        <v>-0.07665141654797829</v>
+      </c>
+      <c r="F47">
+        <v>-0.02119530452451182</v>
+      </c>
+      <c r="G47">
+        <v>-0.06246117214862807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02202201902883331</v>
+        <v>-0.0201217292686456</v>
       </c>
       <c r="C48">
-        <v>0.01193804290524007</v>
+        <v>0.01467864125353377</v>
       </c>
       <c r="D48">
-        <v>0.01687250510679266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02417939655180914</v>
+      </c>
+      <c r="E48">
+        <v>-0.0970748360186086</v>
+      </c>
+      <c r="F48">
+        <v>0.006865393824336987</v>
+      </c>
+      <c r="G48">
+        <v>-0.04962392224553958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08662613966846973</v>
+        <v>-0.07374863341414613</v>
       </c>
       <c r="C50">
-        <v>0.08424753161633984</v>
+        <v>0.07488648037140892</v>
       </c>
       <c r="D50">
-        <v>0.05233012158629693</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002001563167438397</v>
+      </c>
+      <c r="E50">
+        <v>-0.08855000527982292</v>
+      </c>
+      <c r="F50">
+        <v>-0.05676439341578806</v>
+      </c>
+      <c r="G50">
+        <v>-0.0342995862593591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01516809479600096</v>
+        <v>-0.01136150279418043</v>
       </c>
       <c r="C51">
-        <v>0.04938458113986192</v>
+        <v>0.03056872263724627</v>
       </c>
       <c r="D51">
-        <v>-0.04828377721290926</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0717238810278132</v>
+      </c>
+      <c r="E51">
+        <v>-0.08586362898398478</v>
+      </c>
+      <c r="F51">
+        <v>0.01128869158264318</v>
+      </c>
+      <c r="G51">
+        <v>-0.02461295449068299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08587608086076179</v>
+        <v>-0.09933980151646092</v>
       </c>
       <c r="C53">
-        <v>0.07741415464177516</v>
+        <v>0.08560852745552928</v>
       </c>
       <c r="D53">
-        <v>0.07022446301029718</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05451987365206652</v>
+      </c>
+      <c r="E53">
+        <v>-0.08904884047516609</v>
+      </c>
+      <c r="F53">
+        <v>-0.01777057439632554</v>
+      </c>
+      <c r="G53">
+        <v>-0.06419120574044539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03973222612273886</v>
+        <v>-0.03215575370845017</v>
       </c>
       <c r="C54">
-        <v>0.03172883853870252</v>
+        <v>0.03034873015682754</v>
       </c>
       <c r="D54">
-        <v>-0.0075492902591638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.04434188304488675</v>
+      </c>
+      <c r="E54">
+        <v>-0.08851433799140603</v>
+      </c>
+      <c r="F54">
+        <v>0.006446100166045231</v>
+      </c>
+      <c r="G54">
+        <v>-0.05758353740267434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08415650822041988</v>
+        <v>-0.09233782208459966</v>
       </c>
       <c r="C55">
-        <v>0.05092857519331673</v>
+        <v>0.06585784022907014</v>
       </c>
       <c r="D55">
-        <v>0.06672841098999023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05285151586351173</v>
+      </c>
+      <c r="E55">
+        <v>-0.05712951589311996</v>
+      </c>
+      <c r="F55">
+        <v>-0.02822179155311895</v>
+      </c>
+      <c r="G55">
+        <v>-0.02765571020589759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1541718108663508</v>
+        <v>-0.1565882618700535</v>
       </c>
       <c r="C56">
-        <v>0.08128055939260977</v>
+        <v>0.1007182054351294</v>
       </c>
       <c r="D56">
-        <v>0.07258405754079045</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05980550300255215</v>
+      </c>
+      <c r="E56">
+        <v>-0.04003366270300106</v>
+      </c>
+      <c r="F56">
+        <v>-0.01294441323747529</v>
+      </c>
+      <c r="G56">
+        <v>-0.03891670890689468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04693239759550503</v>
+        <v>-0.03502512660128891</v>
       </c>
       <c r="C58">
-        <v>-0.00568481961232755</v>
+        <v>0.009247997006294912</v>
       </c>
       <c r="D58">
-        <v>-0.1783135614502065</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2706783010832397</v>
+      </c>
+      <c r="E58">
+        <v>-0.3486247785278989</v>
+      </c>
+      <c r="F58">
+        <v>-0.1917576024401886</v>
+      </c>
+      <c r="G58">
+        <v>0.6181091026665784</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1227753132033532</v>
+        <v>-0.1420753358315152</v>
       </c>
       <c r="C59">
-        <v>-0.2095061705816335</v>
+        <v>-0.1948141084480534</v>
       </c>
       <c r="D59">
-        <v>-0.03217820293097341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03474058902141136</v>
+      </c>
+      <c r="E59">
+        <v>-0.03302694913715556</v>
+      </c>
+      <c r="F59">
+        <v>0.02512011731850866</v>
+      </c>
+      <c r="G59">
+        <v>0.01841819172717393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2944822367567264</v>
+        <v>-0.2666426014390331</v>
       </c>
       <c r="C60">
-        <v>0.1040672454255107</v>
+        <v>0.09658111007760022</v>
       </c>
       <c r="D60">
-        <v>-0.2747308393926861</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2468385387260648</v>
+      </c>
+      <c r="E60">
+        <v>0.260504880676935</v>
+      </c>
+      <c r="F60">
+        <v>-0.08996056331745744</v>
+      </c>
+      <c r="G60">
+        <v>-0.0244928556717496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04893487601725968</v>
+        <v>-0.0458360092703447</v>
       </c>
       <c r="C61">
-        <v>0.05422951740162373</v>
+        <v>0.05447831268188446</v>
       </c>
       <c r="D61">
-        <v>-0.02341439785403536</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05460612943560494</v>
+      </c>
+      <c r="E61">
+        <v>-0.07362520350388457</v>
+      </c>
+      <c r="F61">
+        <v>-0.0005903227301902575</v>
+      </c>
+      <c r="G61">
+        <v>-0.06334713473473637</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01783149574951267</v>
+        <v>-0.01769857912656842</v>
       </c>
       <c r="C63">
-        <v>0.03412292015674636</v>
+        <v>0.03044842316937172</v>
       </c>
       <c r="D63">
-        <v>0.0186689553361168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02843722687759552</v>
+      </c>
+      <c r="E63">
+        <v>-0.08989638734822943</v>
+      </c>
+      <c r="F63">
+        <v>-0.01909841214054606</v>
+      </c>
+      <c r="G63">
+        <v>-0.03267278758512249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05525816662897456</v>
+        <v>-0.05945567992219201</v>
       </c>
       <c r="C64">
-        <v>0.04702939630699066</v>
+        <v>0.0587996622210514</v>
       </c>
       <c r="D64">
-        <v>-0.007538855475581135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01950677386910003</v>
+      </c>
+      <c r="E64">
+        <v>-0.05921853377728364</v>
+      </c>
+      <c r="F64">
+        <v>0.01664737768900266</v>
+      </c>
+      <c r="G64">
+        <v>-0.08140967144564187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07899627850317179</v>
+        <v>-0.06505237323205286</v>
       </c>
       <c r="C65">
-        <v>0.02425630182133762</v>
+        <v>0.02505874451507364</v>
       </c>
       <c r="D65">
-        <v>-0.05568736276082873</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09727496587255363</v>
+      </c>
+      <c r="E65">
+        <v>-0.05972018640663693</v>
+      </c>
+      <c r="F65">
+        <v>-0.03253708188580619</v>
+      </c>
+      <c r="G65">
+        <v>0.05553979639167896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06310534681560936</v>
+        <v>-0.05527560574576815</v>
       </c>
       <c r="C66">
-        <v>0.07727237566558633</v>
+        <v>0.07627714059720632</v>
       </c>
       <c r="D66">
-        <v>-0.04351352975416588</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08923406252134343</v>
+      </c>
+      <c r="E66">
+        <v>-0.0902872693652134</v>
+      </c>
+      <c r="F66">
+        <v>0.001213970366332127</v>
+      </c>
+      <c r="G66">
+        <v>-0.04989385608803266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05065581822435661</v>
+        <v>-0.04303077277011122</v>
       </c>
       <c r="C67">
-        <v>0.03180625503075462</v>
+        <v>0.02848372752337942</v>
       </c>
       <c r="D67">
-        <v>0.02353885790404595</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.008866027468692162</v>
+      </c>
+      <c r="E67">
+        <v>-0.04249867174401767</v>
+      </c>
+      <c r="F67">
+        <v>-0.003123046433063729</v>
+      </c>
+      <c r="G67">
+        <v>-0.01206899787011039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1235999790062335</v>
+        <v>-0.1482283911979</v>
       </c>
       <c r="C68">
-        <v>-0.2846397532138707</v>
+        <v>-0.2447023055536018</v>
       </c>
       <c r="D68">
-        <v>0.007646520013333775</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006791966925804847</v>
+      </c>
+      <c r="E68">
+        <v>-0.05139901274533227</v>
+      </c>
+      <c r="F68">
+        <v>-0.0158135288213536</v>
+      </c>
+      <c r="G68">
+        <v>0.009948004941795908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09540103898723426</v>
+        <v>-0.09047340634920954</v>
       </c>
       <c r="C69">
-        <v>0.07283193255537342</v>
+        <v>0.0894359897184193</v>
       </c>
       <c r="D69">
-        <v>0.04733967816892416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.002711078890522662</v>
+      </c>
+      <c r="E69">
+        <v>-0.07756638606297292</v>
+      </c>
+      <c r="F69">
+        <v>0.007633233784083958</v>
+      </c>
+      <c r="G69">
+        <v>-0.07645380222641546</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1125990331174898</v>
+        <v>-0.1428522426642474</v>
       </c>
       <c r="C71">
-        <v>-0.261605989504983</v>
+        <v>-0.2455484094162655</v>
       </c>
       <c r="D71">
-        <v>-0.0135098117094302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01084722143459947</v>
+      </c>
+      <c r="E71">
+        <v>-0.06695033530662235</v>
+      </c>
+      <c r="F71">
+        <v>-0.02934915626483999</v>
+      </c>
+      <c r="G71">
+        <v>-0.04158434374653575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1004688978615536</v>
+        <v>-0.1060011453048558</v>
       </c>
       <c r="C72">
-        <v>0.04693883015782836</v>
+        <v>0.0487262099184115</v>
       </c>
       <c r="D72">
-        <v>-0.01683671160635823</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05383219874562455</v>
+      </c>
+      <c r="E72">
+        <v>-0.05184081319605678</v>
+      </c>
+      <c r="F72">
+        <v>-0.03324051717112772</v>
+      </c>
+      <c r="G72">
+        <v>-0.05972867397862693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3727412417440242</v>
+        <v>-0.318363750440903</v>
       </c>
       <c r="C73">
-        <v>0.06661087795796759</v>
+        <v>0.07686704736204196</v>
       </c>
       <c r="D73">
-        <v>-0.5725929191728171</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4831920534891372</v>
+      </c>
+      <c r="E73">
+        <v>0.5147821399656912</v>
+      </c>
+      <c r="F73">
+        <v>-0.1689362654576456</v>
+      </c>
+      <c r="G73">
+        <v>0.02642911705772864</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.107075078748003</v>
+        <v>-0.1103546994818935</v>
       </c>
       <c r="C74">
-        <v>0.09201796386801954</v>
+        <v>0.09146315061543372</v>
       </c>
       <c r="D74">
-        <v>0.05578763935067674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04472206162593193</v>
+      </c>
+      <c r="E74">
+        <v>-0.06385961055873625</v>
+      </c>
+      <c r="F74">
+        <v>-0.0368349940789981</v>
+      </c>
+      <c r="G74">
+        <v>-0.03170367136173626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2570462818952249</v>
+        <v>-0.2587618294547452</v>
       </c>
       <c r="C75">
-        <v>0.08592583526276694</v>
+        <v>0.1220170752985921</v>
       </c>
       <c r="D75">
-        <v>0.1671726595979958</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1644893161245868</v>
+      </c>
+      <c r="E75">
+        <v>-0.00689063777911729</v>
+      </c>
+      <c r="F75">
+        <v>-0.01188705136519686</v>
+      </c>
+      <c r="G75">
+        <v>0.01869738263560686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1202225716397667</v>
+        <v>-0.1313577948649068</v>
       </c>
       <c r="C76">
-        <v>0.07677609317247032</v>
+        <v>0.08910683401845682</v>
       </c>
       <c r="D76">
-        <v>0.09297714873191501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07727537374923858</v>
+      </c>
+      <c r="E76">
+        <v>-0.08683657351151419</v>
+      </c>
+      <c r="F76">
+        <v>-0.007869535508424693</v>
+      </c>
+      <c r="G76">
+        <v>-0.02847791649156445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08343663754580975</v>
+        <v>-0.06875544457659873</v>
       </c>
       <c r="C77">
-        <v>0.03453382971373611</v>
+        <v>0.05637059421923467</v>
       </c>
       <c r="D77">
-        <v>-0.05601326723575886</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07836520486868598</v>
+      </c>
+      <c r="E77">
+        <v>-0.1226836023073525</v>
+      </c>
+      <c r="F77">
+        <v>0.2044555618086158</v>
+      </c>
+      <c r="G77">
+        <v>0.1299892992925137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04802958089875347</v>
+        <v>-0.04858176637718072</v>
       </c>
       <c r="C78">
-        <v>0.04083010447332673</v>
+        <v>0.0510588219809903</v>
       </c>
       <c r="D78">
-        <v>-0.0429684809380863</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08059266281398667</v>
+      </c>
+      <c r="E78">
+        <v>-0.08512087072014532</v>
+      </c>
+      <c r="F78">
+        <v>0.001206069467220946</v>
+      </c>
+      <c r="G78">
+        <v>-0.05197137183465009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001447070982864569</v>
+        <v>-0.0365246698701074</v>
       </c>
       <c r="C79">
-        <v>0.0009192098673511254</v>
+        <v>0.04984816808358414</v>
       </c>
       <c r="D79">
-        <v>-0.005239299176697889</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.09096889369197989</v>
+      </c>
+      <c r="E79">
+        <v>-0.07651965951662745</v>
+      </c>
+      <c r="F79">
+        <v>-0.0382200112473304</v>
+      </c>
+      <c r="G79">
+        <v>-0.1272463565711482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03642524171378608</v>
+        <v>-0.02896091105508927</v>
       </c>
       <c r="C80">
-        <v>0.04820770828660631</v>
+        <v>0.04899650912996531</v>
       </c>
       <c r="D80">
-        <v>-0.03490942370041736</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04380682636835742</v>
+      </c>
+      <c r="E80">
+        <v>-0.0266199802304654</v>
+      </c>
+      <c r="F80">
+        <v>0.04096836994024902</v>
+      </c>
+      <c r="G80">
+        <v>-0.009118941564454412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1482818954929008</v>
+        <v>-0.1441020981021578</v>
       </c>
       <c r="C81">
-        <v>0.06674040724980354</v>
+        <v>0.0888216345051183</v>
       </c>
       <c r="D81">
-        <v>0.1409178039312632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1281657953732305</v>
+      </c>
+      <c r="E81">
+        <v>-0.05587319839851213</v>
+      </c>
+      <c r="F81">
+        <v>-0.01020793202321774</v>
+      </c>
+      <c r="G81">
+        <v>0.001226419216729994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2146821310737276</v>
+        <v>-0.2374515233327846</v>
       </c>
       <c r="C82">
-        <v>0.09034649530271996</v>
+        <v>0.1592161727502742</v>
       </c>
       <c r="D82">
-        <v>0.1898087656412815</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2479615555626189</v>
+      </c>
+      <c r="E82">
+        <v>0.0422782967100625</v>
+      </c>
+      <c r="F82">
+        <v>0.05367713731387645</v>
+      </c>
+      <c r="G82">
+        <v>-0.3451205800532149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04342051309706559</v>
+        <v>-0.02954942789488258</v>
       </c>
       <c r="C83">
-        <v>0.0401300689835745</v>
+        <v>0.04756858650477697</v>
       </c>
       <c r="D83">
-        <v>-0.0459820541639799</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03603673949924404</v>
+      </c>
+      <c r="E83">
+        <v>-0.03221976987438073</v>
+      </c>
+      <c r="F83">
+        <v>0.02359461468551094</v>
+      </c>
+      <c r="G83">
+        <v>0.01147250292343472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.124487403819533e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001862330050031171</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001324494052343556</v>
+      </c>
+      <c r="E84">
+        <v>-0.006725583386809671</v>
+      </c>
+      <c r="F84">
+        <v>-0.002136787177319302</v>
+      </c>
+      <c r="G84">
+        <v>0.004496912641569055</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.210664833344766</v>
+        <v>-0.1961163012945567</v>
       </c>
       <c r="C85">
-        <v>0.09499842251195478</v>
+        <v>0.1119494097094056</v>
       </c>
       <c r="D85">
-        <v>0.1796653106495133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1461715211956874</v>
+      </c>
+      <c r="E85">
+        <v>0.01825400771883806</v>
+      </c>
+      <c r="F85">
+        <v>-0.08225094244034982</v>
+      </c>
+      <c r="G85">
+        <v>-0.02469951170057376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.011779268435662</v>
+        <v>-0.01606175021730002</v>
       </c>
       <c r="C86">
-        <v>0.02707361535958599</v>
+        <v>0.01532307465641651</v>
       </c>
       <c r="D86">
-        <v>-0.04273212792280782</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08184608087232284</v>
+      </c>
+      <c r="E86">
+        <v>-0.1020189355168372</v>
+      </c>
+      <c r="F86">
+        <v>0.01743445689010565</v>
+      </c>
+      <c r="G86">
+        <v>-0.0635449989630758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03296768404515651</v>
+        <v>-0.03321483542852723</v>
       </c>
       <c r="C87">
-        <v>-0.001157420364395659</v>
+        <v>0.01212467442432982</v>
       </c>
       <c r="D87">
-        <v>-0.05833846772613</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0979379396975027</v>
+      </c>
+      <c r="E87">
+        <v>-0.1412173957367054</v>
+      </c>
+      <c r="F87">
+        <v>0.04689283748186111</v>
+      </c>
+      <c r="G87">
+        <v>0.03253340326728154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.113909451167722</v>
+        <v>-0.09537689059858018</v>
       </c>
       <c r="C88">
-        <v>0.08101377092411359</v>
+        <v>0.06780825899064914</v>
       </c>
       <c r="D88">
-        <v>0.01742478495641159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0177032097444584</v>
+      </c>
+      <c r="E88">
+        <v>-0.05491901867992381</v>
+      </c>
+      <c r="F88">
+        <v>0.01685759335800125</v>
+      </c>
+      <c r="G88">
+        <v>-0.0443152107269542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1758826150528819</v>
+        <v>-0.2145633115896273</v>
       </c>
       <c r="C89">
-        <v>-0.3809506357775112</v>
+        <v>-0.3836801145295518</v>
       </c>
       <c r="D89">
-        <v>0.0292586784681088</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.009080491146262856</v>
+      </c>
+      <c r="E89">
+        <v>-0.08260508979805385</v>
+      </c>
+      <c r="F89">
+        <v>0.06429966909896169</v>
+      </c>
+      <c r="G89">
+        <v>-0.01499487195774203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1691992622198111</v>
+        <v>-0.1954327350159031</v>
       </c>
       <c r="C90">
-        <v>-0.3358502958444981</v>
+        <v>-0.3110100775245192</v>
       </c>
       <c r="D90">
-        <v>0.03845890540736272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01071173987601645</v>
+      </c>
+      <c r="E90">
+        <v>-0.06431101223223615</v>
+      </c>
+      <c r="F90">
+        <v>0.002414518514831352</v>
+      </c>
+      <c r="G90">
+        <v>0.008197668478986283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1924156154406764</v>
+        <v>-0.1872907770147649</v>
       </c>
       <c r="C91">
-        <v>0.1197630906229754</v>
+        <v>0.1408987898867811</v>
       </c>
       <c r="D91">
-        <v>0.1529494681156188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.134929492973387</v>
+      </c>
+      <c r="E91">
+        <v>-0.05128907752667603</v>
+      </c>
+      <c r="F91">
+        <v>-0.003458219496163819</v>
+      </c>
+      <c r="G91">
+        <v>-0.001465938255871686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1595317024504457</v>
+        <v>-0.1796379001836972</v>
       </c>
       <c r="C92">
-        <v>-0.2915321011162958</v>
+        <v>-0.2961302171119635</v>
       </c>
       <c r="D92">
-        <v>0.02477862192269742</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00914007573777517</v>
+      </c>
+      <c r="E92">
+        <v>-0.07293790521687805</v>
+      </c>
+      <c r="F92">
+        <v>0.03457836572512773</v>
+      </c>
+      <c r="G92">
+        <v>-0.05059027210287491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1872700604567987</v>
+        <v>-0.2130780010732538</v>
       </c>
       <c r="C93">
-        <v>-0.3452675809381969</v>
+        <v>-0.3217148189429516</v>
       </c>
       <c r="D93">
-        <v>0.04392581467143864</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01905879984233371</v>
+      </c>
+      <c r="E93">
+        <v>-0.03099414174001412</v>
+      </c>
+      <c r="F93">
+        <v>-0.02095152552242835</v>
+      </c>
+      <c r="G93">
+        <v>-0.0518481251329753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.359483891452719</v>
+        <v>-0.3495513482110874</v>
       </c>
       <c r="C94">
-        <v>0.1137539928222403</v>
+        <v>0.1704790165529074</v>
       </c>
       <c r="D94">
-        <v>0.4484108895689073</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4241540977957316</v>
+      </c>
+      <c r="E94">
+        <v>0.09453126348707015</v>
+      </c>
+      <c r="F94">
+        <v>0.08674570477419538</v>
+      </c>
+      <c r="G94">
+        <v>0.5491424927720242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1141650630365818</v>
+        <v>-0.08609351196850666</v>
       </c>
       <c r="C95">
-        <v>0.03702590981036478</v>
+        <v>0.05043157885436887</v>
       </c>
       <c r="D95">
-        <v>-0.2803203863726875</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2188734166725811</v>
+      </c>
+      <c r="E95">
+        <v>0.06155035034696776</v>
+      </c>
+      <c r="F95">
+        <v>0.9011401609063325</v>
+      </c>
+      <c r="G95">
+        <v>0.06495352322103869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1895698423859568</v>
+        <v>-0.1858668055186021</v>
       </c>
       <c r="C98">
-        <v>0.03215204247509994</v>
+        <v>0.04978018719937431</v>
       </c>
       <c r="D98">
-        <v>-0.2218512815156276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2085680732815577</v>
+      </c>
+      <c r="E98">
+        <v>0.1570024484112431</v>
+      </c>
+      <c r="F98">
+        <v>-0.1074047626137594</v>
+      </c>
+      <c r="G98">
+        <v>-0.04243309623757498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01080196724960424</v>
+        <v>-0.008261552450824749</v>
       </c>
       <c r="C101">
-        <v>0.02983922179871084</v>
+        <v>0.02683381605548549</v>
       </c>
       <c r="D101">
-        <v>0.004784365057000551</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03511122101097804</v>
+      </c>
+      <c r="E101">
+        <v>-0.08356387877292057</v>
+      </c>
+      <c r="F101">
+        <v>0.005107522479157574</v>
+      </c>
+      <c r="G101">
+        <v>-0.05874269093586853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1205685404709327</v>
+        <v>-0.1233385465042448</v>
       </c>
       <c r="C102">
-        <v>0.06481795186184013</v>
+        <v>0.09869149055090189</v>
       </c>
       <c r="D102">
-        <v>0.05921513015197536</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06254454089259852</v>
+      </c>
+      <c r="E102">
+        <v>0.003447261353468211</v>
+      </c>
+      <c r="F102">
+        <v>0.02887460089409892</v>
+      </c>
+      <c r="G102">
+        <v>-0.04365093566087706</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
